--- a/data_lake/지형셀.xlsx
+++ b/data_lake/지형셀.xlsx
@@ -1311,17 +1311,35 @@
           <t>파주(문산)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>평야</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>126.7800, 37.8500</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>기계화부대 기동 용이</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1334,17 +1352,35 @@
           <t>파주(법원)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>126.9000, 37.8200</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1357,17 +1393,35 @@
           <t>연천(전곡)</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>127.0600, 38.0200</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1380,17 +1434,35 @@
           <t>양주(광적)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>평야</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>126.9800, 37.8200</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>전차/포병 전개 용이</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1403,17 +1475,35 @@
           <t>동두천</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>127.0500, 37.9000</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1426,17 +1516,35 @@
           <t>포천</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>127.2000, 37.8900</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1449,17 +1557,35 @@
           <t>고양(일산)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>126.7700, 37.6600</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1472,17 +1598,35 @@
           <t>의정부</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>127.0400, 37.7400</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1495,17 +1639,35 @@
           <t>김포</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>126.7000, 37.6200</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1518,17 +1680,35 @@
           <t>철원(남)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>산악</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>127.2500, 38.1500</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>일반 산악 지형</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
